--- a/data/trans_dic/Predimed_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/Predimed_R2-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>93,57%</t>
+          <t>93,51%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>87,53%</t>
+          <t>87,5%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>90,61%</t>
+          <t>90,83%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>88,21; 97,27</t>
+          <t>87,88; 97,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>81,63; 92,04</t>
+          <t>81,25; 91,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>86,64; 93,68</t>
+          <t>86,94; 93,86</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>84,86%</t>
+          <t>84,79%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>84,38%</t>
+          <t>86,14%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>84,6%</t>
+          <t>85,52%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>79,9; 89,33</t>
+          <t>79,73; 89,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>79,76; 88,07</t>
+          <t>81,91; 92,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>81,41; 87,25</t>
+          <t>82,33; 89,18</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>81,71%</t>
+          <t>81,2%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>82,42%</t>
+          <t>82,28%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>82,07%</t>
+          <t>81,74%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>77,82; 85,12</t>
+          <t>77,2; 84,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>79,69; 85,02</t>
+          <t>79,58; 84,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>79,82; 84,35</t>
+          <t>79,47; 84,05</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>83,97%</t>
+          <t>87,66%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>77,36%</t>
+          <t>74,66%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>80,59%</t>
+          <t>81,87%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>80,69; 88,07</t>
+          <t>81,65; 94,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>72,7; 80,47</t>
+          <t>60,57; 79,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>77,91; 83,33</t>
+          <t>76,58; 88,93</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>81,21%</t>
+          <t>80,91%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>80,47%</t>
+          <t>80,25%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>80,84%</t>
+          <t>80,58%</t>
         </is>
       </c>
     </row>
@@ -779,24 +779,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>77,72; 84,25</t>
+          <t>77,35; 83,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>77,86; 82,99</t>
+          <t>77,63; 82,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>78,6; 82,67</t>
+          <t>78,32; 82,47</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>78,16%</t>
+          <t>74,87%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>81,11%</t>
+          <t>83,16%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>79,94%</t>
+          <t>80,14%</t>
         </is>
       </c>
     </row>
@@ -829,24 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>75,47; 80,97</t>
+          <t>70,97; 78,47</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>77,66; 87,56</t>
+          <t>73,43; 93,54</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>77,75; 84,5</t>
+          <t>73,7; 89,41</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>83,04%</t>
+          <t>81,66%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>81,45%</t>
+          <t>82,92%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>82,2%</t>
+          <t>82,42%</t>
         </is>
       </c>
     </row>
@@ -879,29 +879,79 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>81,51; 84,5</t>
+          <t>77,7; 85,31</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>79,98; 83,41</t>
+          <t>79,78; 85,61</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>81,03; 83,47</t>
+          <t>80,26; 84,84</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>83,99%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>81,65%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>82,78%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>82,07; 87,77</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>79,23; 84,97</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>81,14; 85,17</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -909,6 +959,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/Predimed_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/Predimed_R2-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>87,88; 97,32</t>
+          <t>87,43; 97,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>81,25; 91,93</t>
+          <t>81,26; 91,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>86,94; 93,86</t>
+          <t>86,69; 93,9</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>79,73; 89,28</t>
+          <t>79,53; 89,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>81,91; 92,16</t>
+          <t>81,49; 91,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>82,33; 89,18</t>
+          <t>82,33; 89,33</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>77,2; 84,64</t>
+          <t>76,53; 84,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>79,58; 84,9</t>
+          <t>79,46; 85,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>79,47; 84,05</t>
+          <t>79,32; 83,9</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>81,65; 94,49</t>
+          <t>81,51; 94,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>60,57; 79,58</t>
+          <t>61,91; 79,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>76,58; 88,93</t>
+          <t>76,49; 88,42</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>77,35; 83,92</t>
+          <t>77,52; 83,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>77,63; 82,81</t>
+          <t>77,3; 82,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>78,32; 82,47</t>
+          <t>78,25; 82,38</t>
         </is>
       </c>
     </row>
@@ -829,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>70,97; 78,47</t>
+          <t>71,05; 78,42</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>73,43; 93,54</t>
+          <t>73,29; 93,72</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>73,7; 89,41</t>
+          <t>73,7; 90,09</t>
         </is>
       </c>
     </row>
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>77,7; 85,31</t>
+          <t>77,14; 85,3</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>79,78; 85,61</t>
+          <t>79,99; 85,35</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>80,26; 84,84</t>
+          <t>79,98; 84,47</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>82,07; 87,77</t>
+          <t>82,11; 87,88</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>79,23; 84,97</t>
+          <t>78,97; 85,12</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>81,14; 85,17</t>
+          <t>81,06; 85,18</t>
         </is>
       </c>
     </row>
@@ -964,4 +965,684 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con una adherencia baja a la dieta mediterránea</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>322145</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>244072</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>566217</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>301197; 334520</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>226669; 256591</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>540423; 585365</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>367</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>616</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>342593</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>415183</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>757775</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>321355; 361846</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>392771; 439764</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>729498; 791479</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>431</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>666</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1097</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>413197</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>425696</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>838893</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>389432; 430228</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>411096; 440518</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>814033; 861030</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>520</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>868</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1388</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>745815</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>510638</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1256454</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>693517; 803130</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>423464; 544395</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1173953; 1357084</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>510</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>767</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1277</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>422981</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>417616</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>840597</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>405254; 438995</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>402265; 430319</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>816320; 859426</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>585</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>985</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>254216</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>492504</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>746721</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>241257; 266289</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>434092; 555053</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>686726; 839458</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>658</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1004</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>208896</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>320700</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>529596</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>197328; 218197</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>309370; 330101</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>513918; 542769</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>2605</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>4078</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>6683</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>2709843</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>2826408</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>5536252</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>2649186; 2835376</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>2733822; 2946526</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>5421362; 5697167</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>